--- a/ERRORES_CONSOLIDADOS.xlsx
+++ b/ERRORES_CONSOLIDADOS.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Propietarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Fichas" sheetId="1" r:id="rId1"/>
     <sheet name="Resumen" sheetId="2" r:id="rId2"/>
     <sheet name="Errores por Ficha" sheetId="3" r:id="rId3"/>
     <sheet name="Reportes" sheetId="4" r:id="rId4"/>
@@ -17,30 +17,408 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="144">
+  <si>
+    <t>NroFicha</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>Npn</t>
+  </si>
+  <si>
+    <t>DestinoEconomico</t>
+  </si>
   <si>
     <t>MatriculaInmobiliaria</t>
   </si>
   <si>
-    <t>NumeroDocumento</t>
-  </si>
-  <si>
-    <t>NroFicha</t>
-  </si>
-  <si>
-    <t>Observacion</t>
+    <t>AreaTotalConstruida</t>
+  </si>
+  <si>
+    <t>CaracteristicaPredio</t>
+  </si>
+  <si>
+    <t>AreaTotalTerreno</t>
+  </si>
+  <si>
+    <t>ModoAdquisicion</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>PredioLcTipo</t>
+  </si>
+  <si>
+    <t>NumCedulaCatastral</t>
+  </si>
+  <si>
+    <t>AreaTotalLote</t>
+  </si>
+  <si>
+    <t>AreaLoteComun</t>
+  </si>
+  <si>
+    <t>AreaLotePrivada</t>
   </si>
   <si>
     <t>Nombre Hoja</t>
   </si>
   <si>
-    <t>21665095</t>
-  </si>
-  <si>
-    <t>Matricula inmobiliaria repetida con el mismo número de documento</t>
-  </si>
-  <si>
-    <t>Propietarios</t>
+    <t>Destino económico incorrecto</t>
+  </si>
+  <si>
+    <t>DestinoEcconomico es 24|AGRICOLA en predio Urbano</t>
+  </si>
+  <si>
+    <t>051970100000100410065000000000</t>
+  </si>
+  <si>
+    <t>051970100000100200065200000000</t>
+  </si>
+  <si>
+    <t>051970100000100200067000000000</t>
+  </si>
+  <si>
+    <t>051970100000100450073000000000</t>
+  </si>
+  <si>
+    <t>051970100000100400025200000000</t>
+  </si>
+  <si>
+    <t>051970100000100200063000000000</t>
+  </si>
+  <si>
+    <t>051970100000100450065000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420077000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420078000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420079000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420080000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420081000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420082000000000</t>
+  </si>
+  <si>
+    <t>051970100000100420083000000000</t>
+  </si>
+  <si>
+    <t>051970100000100410069000000000</t>
+  </si>
+  <si>
+    <t>051970100000100440120000000000</t>
+  </si>
+  <si>
+    <t>051970100000100400047000000000</t>
+  </si>
+  <si>
+    <t>05197010000010045P003000000000</t>
+  </si>
+  <si>
+    <t>05197010000010045P004000000000</t>
+  </si>
+  <si>
+    <t>05197010000010045P005000000000</t>
+  </si>
+  <si>
+    <t>051970100000100100079300000000</t>
+  </si>
+  <si>
+    <t>051970100000100590006000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590013000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590014000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590015000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590016000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590017000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590018000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590019000000000</t>
+  </si>
+  <si>
+    <t>051970100000100590020000000000</t>
+  </si>
+  <si>
+    <t>051970100000100110138000000000</t>
+  </si>
+  <si>
+    <t>051970100000100550001300000000</t>
+  </si>
+  <si>
+    <t>051970100000100560001000000000</t>
+  </si>
+  <si>
+    <t>051970100000100560002300000000</t>
+  </si>
+  <si>
+    <t>051970100000100610002000000000</t>
+  </si>
+  <si>
+    <t>05197010000010055P002000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P001000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P002000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P003000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P004000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P005000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P006000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P007000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P008000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P009000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P010000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P011000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P012000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P013000000000</t>
+  </si>
+  <si>
+    <t>05197010000010059P014000000000</t>
+  </si>
+  <si>
+    <t>051970100000100200002000000000</t>
+  </si>
+  <si>
+    <t>1|Habitacional</t>
+  </si>
+  <si>
+    <t>19|Uso_Publico</t>
+  </si>
+  <si>
+    <t>12|Lote_Urbanizado_No_Construido</t>
+  </si>
+  <si>
+    <t>13|Lote_Urbanizable_No_Urbanizado</t>
+  </si>
+  <si>
+    <t>14|Lote_No_Urbanizable</t>
+  </si>
+  <si>
+    <t>24|AGRICOLA</t>
+  </si>
+  <si>
+    <t>8|LOTE</t>
+  </si>
+  <si>
+    <t>1|NPH (0)</t>
+  </si>
+  <si>
+    <t>1|DOMINIO (TRADICION)</t>
+  </si>
+  <si>
+    <t>Predio.Privado.Privado</t>
+  </si>
+  <si>
+    <t>Predio.Publico.Fiscal_Patrimonial</t>
+  </si>
+  <si>
+    <t>Predio.Publico.Baldio.Baldio</t>
+  </si>
+  <si>
+    <t>Predio.Publico.Uso_Publico</t>
+  </si>
+  <si>
+    <t>1971001001004100065000000000</t>
+  </si>
+  <si>
+    <t>1971001001002000065000000000</t>
+  </si>
+  <si>
+    <t>1971001001002000067000000000</t>
+  </si>
+  <si>
+    <t>1971001001004500073000000000</t>
+  </si>
+  <si>
+    <t>1971001001004000025000000000</t>
+  </si>
+  <si>
+    <t>1971001001002000063000000000</t>
+  </si>
+  <si>
+    <t>1971001001004500065000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200077000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200078000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200079000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200080000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200081000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200082000000000</t>
+  </si>
+  <si>
+    <t>1971001001004200083000000000</t>
+  </si>
+  <si>
+    <t>1971001001004100069000000000</t>
+  </si>
+  <si>
+    <t>1971001001004400120000000000</t>
+  </si>
+  <si>
+    <t>1971001001004000047000000000</t>
+  </si>
+  <si>
+    <t>19710010010045P0003000000000</t>
+  </si>
+  <si>
+    <t>19710010010045P0004000000000</t>
+  </si>
+  <si>
+    <t>19710010010045P0005000000000</t>
+  </si>
+  <si>
+    <t>1971001001001000079000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900006000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900013000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900014000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900015000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900016000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900017000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900018000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900019000000000</t>
+  </si>
+  <si>
+    <t>1971001001005900020000000000</t>
+  </si>
+  <si>
+    <t>1971001001001100138000000000</t>
+  </si>
+  <si>
+    <t>1971001001005500001000000000</t>
+  </si>
+  <si>
+    <t>1971001001005600001000000000</t>
+  </si>
+  <si>
+    <t>1971001001005600002000000000</t>
+  </si>
+  <si>
+    <t>1971001001006100002000000000</t>
+  </si>
+  <si>
+    <t>19710010010055P0002000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0001000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0002000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0003000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0004000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0005000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0006000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0007000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0008000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0009000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0010000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0011000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0012000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0013000000000</t>
+  </si>
+  <si>
+    <t>19710010010059P0014000000000</t>
+  </si>
+  <si>
+    <t>1971001001002000002000000000</t>
+  </si>
+  <si>
+    <t>Fichas</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -428,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,39 +828,2126 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
+        <v>199974</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>78341</v>
+      </c>
+      <c r="F2">
+        <v>136.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1445682</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>166587</v>
+      </c>
+      <c r="F3">
+        <v>441.05</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>14316</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2947317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>145103</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>5603840</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>155529</v>
+      </c>
+      <c r="F5">
+        <v>361.18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>7501402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>40948</v>
+      </c>
+      <c r="F6">
+        <v>29.92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>853</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>7501774</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>66024</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>7250</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>7501776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>53308</v>
+      </c>
+      <c r="F8">
+        <v>102.77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>257</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>7508072</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>117017</v>
+      </c>
+      <c r="F9">
+        <v>44.31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>7508073</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>117018</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>7508074</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>117019</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>7508075</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>117020</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>7508076</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>117021</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>7508077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>117022</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>7508078</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>117023</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>7508275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16">
+        <v>116553</v>
+      </c>
+      <c r="F16">
+        <v>53.32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>859.9999999999999</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>12386682</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>153864</v>
+      </c>
+      <c r="F17">
+        <v>234.08</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>13212684</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18">
+        <v>129221</v>
+      </c>
+      <c r="F18">
+        <v>39.4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>713</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>900063965</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>178122</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>73.7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>900063966</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>176232</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>316.0000000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>900063967</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>176233</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>210286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>137849</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>197.18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>2904535</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>169869</v>
+      </c>
+      <c r="F23">
+        <v>118.19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>2934544</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>169871</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>2934545</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>169872</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>2934546</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <v>169876</v>
+      </c>
+      <c r="F26">
+        <v>59.97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>2934547</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>169879</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>2934548</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>169880</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>2934549</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>169877</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>2934550</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>169870</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>2934551</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>169867</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31">
+        <v>60</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>5676022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>143680</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>916.61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>7507036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>114300</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33">
+        <v>131.1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>7507037</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>114286</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34">
+        <v>432.6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>7507038</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>114715</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35">
+        <v>126.43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>7507055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>114284</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
+        <v>608</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>900061419</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>181975</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <v>903</v>
+      </c>
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>900063274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38">
+        <v>183517</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>900063275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>183518</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39">
+        <v>859.9999999999999</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>900063276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>183519</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>900063277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>183520</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>900063278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>183521</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>900063279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>183522</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>900063280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>183523</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>900063281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>183524</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>78</v>
+      </c>
+      <c r="L45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>900063282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>183525</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>900063283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47">
+        <v>183526</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+      <c r="L47" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>900063284</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>183527</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" t="s">
+        <v>128</v>
+      </c>
+      <c r="P48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>900063287</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49">
+        <v>183528</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L49" t="s">
+        <v>129</v>
+      </c>
+      <c r="P49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>900063288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>183529</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50">
+        <v>180</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" t="s">
+        <v>130</v>
+      </c>
+      <c r="P50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>900063289</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>183530</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51">
+        <v>162</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52">
         <v>117194</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>73197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>117194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>73197</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="F52">
+        <v>117.26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52">
+        <v>223</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>78</v>
+      </c>
+      <c r="L52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,18 +2965,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,18 +3002,410 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>73197</v>
+        <v>199974</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>210286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1445682</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2904535</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2934544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2934545</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2934546</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2934547</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2934548</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2934549</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2934550</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2934551</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2947317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5603840</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>5676022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>7501402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>7501774</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>7501776</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>7507036</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>7507037</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>7507038</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>7507055</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>7508072</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>7508073</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>7508074</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>7508075</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>7508076</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>7508077</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>7508078</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>7508275</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>12386682</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>13212684</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>900061419</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>900063274</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>900063275</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>900063276</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>900063277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>900063278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>900063279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>900063280</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>900063281</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>900063282</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>900063283</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>900063284</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>900063287</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>900063288</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>900063289</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>900063965</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>900063966</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>900063967</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -558,90 +3423,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>587</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>587</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>1929</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B8">
         <v>998</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
